--- a/DB.xlsx
+++ b/DB.xlsx
@@ -14,7 +14,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BD!$A$1:$S$1326</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BD!$A$1:$S$1462</definedName>
     <definedName name="Eti1icono1">INDEX('[1]Iconos Caracteristicas'!$B$1:$B$64,MATCH([1]Impresion!$A$4,'[1]Iconos Caracteristicas'!$A$1:$A$64,0))</definedName>
     <definedName name="Eti1icono2">INDEX('[1]Iconos Caracteristicas'!$B$1:$B$64,MATCH([1]Impresion!$G$4,'[1]Iconos Caracteristicas'!$A$1:$A$64,0))</definedName>
     <definedName name="Eti1icono3">INDEX('[1]Iconos Caracteristicas'!$B$1:$B$64,MATCH([1]Impresion!$M$4,'[1]Iconos Caracteristicas'!$A$1:$A$64,0))</definedName>
@@ -17351,7 +17351,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33506,7 +33506,7 @@
         <v>5070</v>
       </c>
       <c r="R274" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T274">
         <v>0</v>
@@ -33801,7 +33801,7 @@
         <v>5070</v>
       </c>
       <c r="R279" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T279">
         <v>0</v>
@@ -33919,7 +33919,7 @@
         <v>5072</v>
       </c>
       <c r="R281" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T281">
         <v>0</v>
@@ -33978,7 +33978,7 @@
         <v>5072</v>
       </c>
       <c r="R282" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T282">
         <v>0</v>
@@ -34273,7 +34273,7 @@
         <v>4915</v>
       </c>
       <c r="R287" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T287">
         <v>0</v>
@@ -34332,7 +34332,7 @@
         <v>2187</v>
       </c>
       <c r="R288" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T288">
         <v>0</v>
@@ -34568,7 +34568,7 @@
         <v>5069</v>
       </c>
       <c r="R292" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T292">
         <v>0</v>
@@ -34627,7 +34627,7 @@
         <v>2187</v>
       </c>
       <c r="R293" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T293">
         <v>0</v>
@@ -35158,7 +35158,7 @@
         <v>5061</v>
       </c>
       <c r="R302" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T302">
         <v>0</v>
@@ -35217,7 +35217,7 @@
         <v>5062</v>
       </c>
       <c r="R303" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T303">
         <v>0</v>
@@ -35276,7 +35276,7 @@
         <v>2187</v>
       </c>
       <c r="R304" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T304">
         <v>0</v>
@@ -35335,7 +35335,7 @@
         <v>2187</v>
       </c>
       <c r="R305" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T305">
         <v>0</v>
@@ -35857,7 +35857,7 @@
         <v>2826</v>
       </c>
       <c r="R314" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T314">
         <v>0</v>
@@ -36146,7 +36146,7 @@
         <v>2831</v>
       </c>
       <c r="R319" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T319">
         <v>0</v>
@@ -36205,7 +36205,7 @@
         <v>2187</v>
       </c>
       <c r="R320" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T320">
         <v>0</v>
@@ -36264,7 +36264,7 @@
         <v>2187</v>
       </c>
       <c r="R321" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T321">
         <v>0</v>
@@ -36317,7 +36317,7 @@
         <v>2828</v>
       </c>
       <c r="R322" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T322">
         <v>0</v>
@@ -36370,7 +36370,7 @@
         <v>2825</v>
       </c>
       <c r="R323" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T323">
         <v>0</v>
@@ -36423,7 +36423,7 @@
         <v>2825</v>
       </c>
       <c r="R324" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T324">
         <v>0</v>
@@ -36712,7 +36712,7 @@
         <v>2825</v>
       </c>
       <c r="R329" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T329">
         <v>0</v>
@@ -36765,7 +36765,7 @@
         <v>2827</v>
       </c>
       <c r="R330" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T330">
         <v>0</v>
@@ -36818,7 +36818,7 @@
         <v>2827</v>
       </c>
       <c r="R331" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T331">
         <v>0</v>
@@ -36927,7 +36927,7 @@
         <v>2830</v>
       </c>
       <c r="R333" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T333">
         <v>0</v>
@@ -36986,7 +36986,7 @@
         <v>2187</v>
       </c>
       <c r="R334" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T334">
         <v>0</v>
@@ -37104,7 +37104,7 @@
         <v>2187</v>
       </c>
       <c r="R336" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T336">
         <v>0</v>
@@ -37163,7 +37163,7 @@
         <v>2187</v>
       </c>
       <c r="R337" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T337">
         <v>0</v>
@@ -37216,7 +37216,7 @@
         <v>2834</v>
       </c>
       <c r="R338" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T338">
         <v>0</v>
@@ -37269,7 +37269,7 @@
         <v>2833</v>
       </c>
       <c r="R339" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T339">
         <v>0</v>
@@ -37322,7 +37322,7 @@
         <v>2833</v>
       </c>
       <c r="R340" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T340">
         <v>0</v>
@@ -37375,7 +37375,7 @@
         <v>2833</v>
       </c>
       <c r="R341" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T341">
         <v>0</v>
@@ -37428,7 +37428,7 @@
         <v>2832</v>
       </c>
       <c r="R342" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T342">
         <v>0</v>
@@ -37481,7 +37481,7 @@
         <v>2826</v>
       </c>
       <c r="R343" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T343">
         <v>0</v>
@@ -37534,7 +37534,7 @@
         <v>2835</v>
       </c>
       <c r="R344" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T344">
         <v>0</v>
@@ -37711,7 +37711,7 @@
         <v>2973</v>
       </c>
       <c r="R347" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T347">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>2839</v>
       </c>
       <c r="R350" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T350">
         <v>0</v>
@@ -38053,7 +38053,7 @@
         <v>2836</v>
       </c>
       <c r="R353" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T353">
         <v>0</v>
@@ -38106,7 +38106,7 @@
         <v>2836</v>
       </c>
       <c r="R354" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T354">
         <v>0</v>
@@ -38165,7 +38165,7 @@
         <v>5076</v>
       </c>
       <c r="R355" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T355">
         <v>0</v>
@@ -38218,7 +38218,7 @@
         <v>2837</v>
       </c>
       <c r="R356" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T356">
         <v>0</v>
@@ -38271,7 +38271,7 @@
         <v>2838</v>
       </c>
       <c r="R357" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T357">
         <v>0</v>
@@ -38324,7 +38324,7 @@
         <v>2836</v>
       </c>
       <c r="R358" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T358">
         <v>0</v>
@@ -38436,7 +38436,7 @@
         <v>2840</v>
       </c>
       <c r="R360" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T360">
         <v>0</v>
@@ -38489,7 +38489,7 @@
         <v>2840</v>
       </c>
       <c r="R361" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T361">
         <v>0</v>
@@ -38542,7 +38542,7 @@
         <v>2827</v>
       </c>
       <c r="R362" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T362">
         <v>0</v>
@@ -38595,7 +38595,7 @@
         <v>2827</v>
       </c>
       <c r="R363" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T363">
         <v>0</v>
@@ -38648,7 +38648,7 @@
         <v>2843</v>
       </c>
       <c r="R364" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T364">
         <v>0</v>
@@ -38701,7 +38701,7 @@
         <v>2841</v>
       </c>
       <c r="R365" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T365">
         <v>0</v>
@@ -38754,7 +38754,7 @@
         <v>2842</v>
       </c>
       <c r="R366" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T366">
         <v>0</v>
@@ -38807,7 +38807,7 @@
         <v>2828</v>
       </c>
       <c r="R367" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T367">
         <v>0</v>
@@ -38860,7 +38860,7 @@
         <v>2853</v>
       </c>
       <c r="R368" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T368">
         <v>0</v>
@@ -38913,7 +38913,7 @@
         <v>2836</v>
       </c>
       <c r="R369" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T369">
         <v>0</v>
@@ -38966,7 +38966,7 @@
         <v>2844</v>
       </c>
       <c r="R370" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T370">
         <v>0</v>
@@ -39019,7 +39019,7 @@
         <v>2836</v>
       </c>
       <c r="R371" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T371">
         <v>0</v>
@@ -39432,7 +39432,7 @@
         <v>5078</v>
       </c>
       <c r="R378" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T378">
         <v>0</v>
@@ -39485,7 +39485,7 @@
         <v>2854</v>
       </c>
       <c r="R379" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T379">
         <v>0</v>
@@ -39538,7 +39538,7 @@
         <v>2826</v>
       </c>
       <c r="R380" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T380">
         <v>0</v>
@@ -39597,7 +39597,7 @@
         <v>2848</v>
       </c>
       <c r="R381" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T381">
         <v>0</v>
@@ -39650,7 +39650,7 @@
         <v>2851</v>
       </c>
       <c r="R382" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T382">
         <v>0</v>
@@ -39703,7 +39703,7 @@
         <v>2847</v>
       </c>
       <c r="R383" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T383">
         <v>0</v>
@@ -39756,7 +39756,7 @@
         <v>2856</v>
       </c>
       <c r="R384" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T384">
         <v>0</v>
@@ -39809,7 +39809,7 @@
         <v>2856</v>
       </c>
       <c r="R385" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T385">
         <v>0</v>
@@ -39862,7 +39862,7 @@
         <v>2846</v>
       </c>
       <c r="R386" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T386">
         <v>0</v>
@@ -39915,7 +39915,7 @@
         <v>2844</v>
       </c>
       <c r="R387" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T387">
         <v>0</v>
@@ -39968,7 +39968,7 @@
         <v>2844</v>
       </c>
       <c r="R388" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T388">
         <v>0</v>
@@ -40021,7 +40021,7 @@
         <v>2844</v>
       </c>
       <c r="R389" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T389">
         <v>0</v>
@@ -40074,7 +40074,7 @@
         <v>2852</v>
       </c>
       <c r="R390" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T390">
         <v>0</v>
@@ -40127,7 +40127,7 @@
         <v>2860</v>
       </c>
       <c r="R391" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T391">
         <v>0</v>
@@ -40180,7 +40180,7 @@
         <v>2849</v>
       </c>
       <c r="R392" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T392">
         <v>0</v>
@@ -40233,7 +40233,7 @@
         <v>2835</v>
       </c>
       <c r="R393" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T393">
         <v>0</v>
@@ -40286,7 +40286,7 @@
         <v>2835</v>
       </c>
       <c r="R394" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T394">
         <v>0</v>
@@ -40339,7 +40339,7 @@
         <v>2835</v>
       </c>
       <c r="R395" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T395">
         <v>0</v>
@@ -40451,7 +40451,7 @@
         <v>2860</v>
       </c>
       <c r="R397" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T397">
         <v>0</v>
@@ -40563,7 +40563,7 @@
         <v>2845</v>
       </c>
       <c r="R399" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T399">
         <v>0</v>
@@ -40619,7 +40619,7 @@
         <v>2850</v>
       </c>
       <c r="R400" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T400">
         <v>0</v>
@@ -40672,7 +40672,7 @@
         <v>2855</v>
       </c>
       <c r="R401" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T401">
         <v>0</v>
@@ -40784,7 +40784,7 @@
         <v>2843</v>
       </c>
       <c r="R403" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T403">
         <v>0</v>
@@ -40837,7 +40837,7 @@
         <v>2844</v>
       </c>
       <c r="R404" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T404">
         <v>0</v>
@@ -40890,7 +40890,7 @@
         <v>2836</v>
       </c>
       <c r="R405" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T405">
         <v>0</v>
@@ -40943,7 +40943,7 @@
         <v>2836</v>
       </c>
       <c r="R406" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T406">
         <v>0</v>
@@ -40996,7 +40996,7 @@
         <v>2828</v>
       </c>
       <c r="R407" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T407">
         <v>0</v>
@@ -41049,7 +41049,7 @@
         <v>2828</v>
       </c>
       <c r="R408" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T408">
         <v>0</v>
@@ -41108,7 +41108,7 @@
         <v>2187</v>
       </c>
       <c r="R409" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T409">
         <v>0</v>
@@ -41226,7 +41226,7 @@
         <v>2857</v>
       </c>
       <c r="R411" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T411">
         <v>0</v>
@@ -41574,7 +41574,7 @@
         <v>2860</v>
       </c>
       <c r="R417" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T417">
         <v>0</v>
@@ -41627,7 +41627,7 @@
         <v>2860</v>
       </c>
       <c r="R418" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T418">
         <v>0</v>
@@ -41680,7 +41680,7 @@
         <v>2864</v>
       </c>
       <c r="R419" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T419">
         <v>0</v>
@@ -41733,7 +41733,7 @@
         <v>2861</v>
       </c>
       <c r="R420" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T420">
         <v>0</v>
@@ -41792,7 +41792,7 @@
         <v>2844</v>
       </c>
       <c r="R421" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T421">
         <v>0</v>
@@ -41845,7 +41845,7 @@
         <v>2844</v>
       </c>
       <c r="R422" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T422">
         <v>0</v>
@@ -41898,7 +41898,7 @@
         <v>2860</v>
       </c>
       <c r="R423" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T423">
         <v>0</v>
@@ -41951,7 +41951,7 @@
         <v>2860</v>
       </c>
       <c r="R424" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T424">
         <v>0</v>
@@ -42004,7 +42004,7 @@
         <v>2860</v>
       </c>
       <c r="R425" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T425">
         <v>0</v>
@@ -42057,7 +42057,7 @@
         <v>2861</v>
       </c>
       <c r="R426" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T426">
         <v>0</v>
@@ -42470,7 +42470,7 @@
         <v>2865</v>
       </c>
       <c r="R433" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T433">
         <v>0</v>
@@ -42588,7 +42588,7 @@
         <v>0</v>
       </c>
       <c r="R435" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T435">
         <v>0</v>
@@ -42706,7 +42706,7 @@
         <v>2187</v>
       </c>
       <c r="R437" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T437">
         <v>0</v>
@@ -42942,7 +42942,7 @@
         <v>2990</v>
       </c>
       <c r="R441" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T441">
         <v>0</v>
@@ -42995,7 +42995,7 @@
         <v>2836</v>
       </c>
       <c r="R442" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T442">
         <v>0</v>
@@ -43054,7 +43054,7 @@
         <v>2836</v>
       </c>
       <c r="R443" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T443">
         <v>0</v>
@@ -43113,7 +43113,7 @@
         <v>2864</v>
       </c>
       <c r="R444" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T444">
         <v>0</v>
@@ -43172,7 +43172,7 @@
         <v>2864</v>
       </c>
       <c r="R445" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T445">
         <v>0</v>
@@ -43231,7 +43231,7 @@
         <v>2877</v>
       </c>
       <c r="R446" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T446">
         <v>0</v>
@@ -43290,7 +43290,7 @@
         <v>2862</v>
       </c>
       <c r="R447" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T447">
         <v>0</v>
@@ -43349,7 +43349,7 @@
         <v>2862</v>
       </c>
       <c r="R448" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T448">
         <v>0</v>
@@ -43520,7 +43520,7 @@
         <v>2860</v>
       </c>
       <c r="R451" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T451">
         <v>0</v>
@@ -43579,7 +43579,7 @@
         <v>2860</v>
       </c>
       <c r="R452" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T452">
         <v>0</v>
@@ -43638,7 +43638,7 @@
         <v>2915</v>
       </c>
       <c r="R453" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T453">
         <v>0</v>
@@ -43697,7 +43697,7 @@
         <v>2863</v>
       </c>
       <c r="R454" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T454">
         <v>0</v>
@@ -43750,7 +43750,7 @@
         <v>2873</v>
       </c>
       <c r="R455" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T455">
         <v>0</v>
@@ -43803,7 +43803,7 @@
         <v>2873</v>
       </c>
       <c r="R456" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T456">
         <v>0</v>
@@ -43856,7 +43856,7 @@
         <v>2873</v>
       </c>
       <c r="R457" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T457">
         <v>0</v>
@@ -43909,7 +43909,7 @@
         <v>2871</v>
       </c>
       <c r="R458" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T458">
         <v>0</v>
@@ -44204,7 +44204,7 @@
         <v>2869</v>
       </c>
       <c r="R463" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T463">
         <v>0</v>
@@ -44322,7 +44322,7 @@
         <v>2869</v>
       </c>
       <c r="R465" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T465">
         <v>0</v>
@@ -44375,7 +44375,7 @@
         <v>2874</v>
       </c>
       <c r="R466" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T466">
         <v>0</v>
@@ -44428,7 +44428,7 @@
         <v>2874</v>
       </c>
       <c r="R467" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T467">
         <v>0</v>
@@ -44481,7 +44481,7 @@
         <v>2868</v>
       </c>
       <c r="R468" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T468">
         <v>0</v>
@@ -44534,7 +44534,7 @@
         <v>2868</v>
       </c>
       <c r="R469" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T469">
         <v>0</v>
@@ -44587,7 +44587,7 @@
         <v>2878</v>
       </c>
       <c r="R470" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T470">
         <v>0</v>
@@ -44640,7 +44640,7 @@
         <v>2875</v>
       </c>
       <c r="R471" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T471">
         <v>0</v>
@@ -44699,7 +44699,7 @@
         <v>2860</v>
       </c>
       <c r="R472" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T472">
         <v>0</v>
@@ -44758,7 +44758,7 @@
         <v>2860</v>
       </c>
       <c r="R473" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T473">
         <v>0</v>
@@ -44817,7 +44817,7 @@
         <v>2848</v>
       </c>
       <c r="R474" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T474">
         <v>0</v>
@@ -44870,7 +44870,7 @@
         <v>2860</v>
       </c>
       <c r="R475" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T475">
         <v>0</v>
@@ -45218,7 +45218,7 @@
         <v>2844</v>
       </c>
       <c r="R481" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T481">
         <v>0</v>
@@ -45277,7 +45277,7 @@
         <v>2844</v>
       </c>
       <c r="R482" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T482">
         <v>0</v>
@@ -45572,7 +45572,7 @@
         <v>2879</v>
       </c>
       <c r="R487" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T487">
         <v>0</v>
@@ -45631,7 +45631,7 @@
         <v>2879</v>
       </c>
       <c r="R488" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T488">
         <v>0</v>
@@ -45690,7 +45690,7 @@
         <v>2888</v>
       </c>
       <c r="R489" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T489">
         <v>0</v>
@@ -45808,7 +45808,7 @@
         <v>2769</v>
       </c>
       <c r="R491" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T491">
         <v>0</v>
@@ -46398,7 +46398,7 @@
         <v>2187</v>
       </c>
       <c r="R501" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T501">
         <v>0</v>
@@ -46693,7 +46693,7 @@
         <v>2848</v>
       </c>
       <c r="R506" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T506">
         <v>0</v>
@@ -46811,7 +46811,7 @@
         <v>2848</v>
       </c>
       <c r="R508" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T508">
         <v>0</v>
@@ -46929,7 +46929,7 @@
         <v>2880</v>
       </c>
       <c r="R510" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T510">
         <v>0</v>
@@ -46988,7 +46988,7 @@
         <v>2861</v>
       </c>
       <c r="R511" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T511">
         <v>0</v>
@@ -47047,7 +47047,7 @@
         <v>2886</v>
       </c>
       <c r="R512" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T512">
         <v>0</v>
@@ -47637,7 +47637,7 @@
         <v>2844</v>
       </c>
       <c r="R522" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T522">
         <v>0</v>
@@ -47696,7 +47696,7 @@
         <v>2928</v>
       </c>
       <c r="R523" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T523">
         <v>0</v>
@@ -47873,7 +47873,7 @@
         <v>2187</v>
       </c>
       <c r="R526" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T526">
         <v>0</v>
@@ -48227,7 +48227,7 @@
         <v>2917</v>
       </c>
       <c r="R532" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T532">
         <v>0</v>
@@ -48286,7 +48286,7 @@
         <v>2917</v>
       </c>
       <c r="R533" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T533">
         <v>0</v>
@@ -48404,7 +48404,7 @@
         <v>2829</v>
       </c>
       <c r="R535" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T535">
         <v>0</v>
@@ -48994,7 +48994,7 @@
         <v>2919</v>
       </c>
       <c r="R545" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T545">
         <v>0</v>
@@ -49053,7 +49053,7 @@
         <v>2919</v>
       </c>
       <c r="R546" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T546">
         <v>0</v>
@@ -49112,7 +49112,7 @@
         <v>2930</v>
       </c>
       <c r="R547" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T547">
         <v>0</v>
@@ -49171,7 +49171,7 @@
         <v>2927</v>
       </c>
       <c r="R548" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T548">
         <v>0</v>
@@ -50115,7 +50115,7 @@
         <v>2187</v>
       </c>
       <c r="R564" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T564">
         <v>0</v>
@@ -50528,7 +50528,7 @@
         <v>2945</v>
       </c>
       <c r="R571" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T571">
         <v>0</v>
@@ -51118,7 +51118,7 @@
         <v>3</v>
       </c>
       <c r="R581" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T581">
         <v>0</v>
@@ -51236,7 +51236,7 @@
         <v>2950</v>
       </c>
       <c r="R583" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T583">
         <v>0</v>
@@ -51413,7 +51413,7 @@
         <v>2187</v>
       </c>
       <c r="R586" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T586">
         <v>0</v>
@@ -51472,7 +51472,7 @@
         <v>5094</v>
       </c>
       <c r="R587" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T587">
         <v>0</v>
@@ -51767,7 +51767,7 @@
         <v>2951</v>
       </c>
       <c r="R592" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T592">
         <v>0</v>
@@ -51932,7 +51932,7 @@
         <v>2187</v>
       </c>
       <c r="R595" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T595">
         <v>0</v>
@@ -51991,7 +51991,7 @@
         <v>2187</v>
       </c>
       <c r="R596" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T596">
         <v>0</v>
@@ -52109,7 +52109,7 @@
         <v>2187</v>
       </c>
       <c r="R598" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T598">
         <v>0</v>
@@ -52994,7 +52994,7 @@
         <v>2952</v>
       </c>
       <c r="R613" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T613">
         <v>0</v>
@@ -53053,7 +53053,7 @@
         <v>2950</v>
       </c>
       <c r="R614" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T614">
         <v>0</v>
@@ -54115,7 +54115,7 @@
         <v>287</v>
       </c>
       <c r="R632" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T632">
         <v>0</v>
@@ -54174,7 +54174,7 @@
         <v>2990</v>
       </c>
       <c r="R633" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T633">
         <v>0</v>
@@ -54941,7 +54941,7 @@
         <v>2187</v>
       </c>
       <c r="R646" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T646">
         <v>0</v>
@@ -55236,7 +55236,7 @@
         <v>2889</v>
       </c>
       <c r="R651" t="s">
-        <v>5168</v>
+        <v>5170</v>
       </c>
       <c r="T651">
         <v>0</v>
@@ -55354,7 +55354,7 @@
         <v>2889</v>
       </c>
       <c r="R653" t="s">
-        <v>5168</v>
+        <v>5170</v>
       </c>
       <c r="T653">
         <v>0</v>
@@ -55472,7 +55472,7 @@
         <v>2890</v>
       </c>
       <c r="R655" t="s">
-        <v>5168</v>
+        <v>5170</v>
       </c>
       <c r="T655">
         <v>0</v>
@@ -55531,7 +55531,7 @@
         <v>2890</v>
       </c>
       <c r="R656" t="s">
-        <v>5168</v>
+        <v>5170</v>
       </c>
       <c r="T656">
         <v>0</v>
@@ -55767,7 +55767,7 @@
         <v>2882</v>
       </c>
       <c r="R660" t="s">
-        <v>5168</v>
+        <v>5170</v>
       </c>
       <c r="T660">
         <v>0</v>
@@ -55820,7 +55820,7 @@
         <v>2870</v>
       </c>
       <c r="R661" t="s">
-        <v>5168</v>
+        <v>5170</v>
       </c>
       <c r="T661">
         <v>0</v>
@@ -55873,7 +55873,7 @@
         <v>2866</v>
       </c>
       <c r="R662" t="s">
-        <v>5168</v>
+        <v>5170</v>
       </c>
       <c r="T662">
         <v>0</v>
@@ -55926,7 +55926,7 @@
         <v>2872</v>
       </c>
       <c r="R663" t="s">
-        <v>5168</v>
+        <v>5170</v>
       </c>
       <c r="T663">
         <v>0</v>
@@ -55985,7 +55985,7 @@
         <v>2882</v>
       </c>
       <c r="R664" t="s">
-        <v>5168</v>
+        <v>5170</v>
       </c>
       <c r="T664">
         <v>0</v>
@@ -56038,7 +56038,7 @@
         <v>2876</v>
       </c>
       <c r="R665" t="s">
-        <v>5168</v>
+        <v>5170</v>
       </c>
       <c r="T665">
         <v>0</v>
@@ -56097,7 +56097,7 @@
         <v>2883</v>
       </c>
       <c r="R666" t="s">
-        <v>5168</v>
+        <v>5170</v>
       </c>
       <c r="T666">
         <v>0</v>
@@ -56156,7 +56156,7 @@
         <v>2884</v>
       </c>
       <c r="R667" t="s">
-        <v>5168</v>
+        <v>5170</v>
       </c>
       <c r="T667">
         <v>0</v>
@@ -56215,7 +56215,7 @@
         <v>2882</v>
       </c>
       <c r="R668" t="s">
-        <v>5168</v>
+        <v>5170</v>
       </c>
       <c r="T668">
         <v>0</v>
@@ -56274,7 +56274,7 @@
         <v>2908</v>
       </c>
       <c r="R669" t="s">
-        <v>5168</v>
+        <v>5170</v>
       </c>
       <c r="T669">
         <v>0</v>
@@ -56389,7 +56389,7 @@
         <v>2187</v>
       </c>
       <c r="R671" t="s">
-        <v>5168</v>
+        <v>5170</v>
       </c>
       <c r="T671">
         <v>0</v>
@@ -56448,7 +56448,7 @@
         <v>2914</v>
       </c>
       <c r="R672" t="s">
-        <v>5168</v>
+        <v>5170</v>
       </c>
       <c r="T672">
         <v>0</v>
@@ -56507,7 +56507,7 @@
         <v>2909</v>
       </c>
       <c r="R673" t="s">
-        <v>5168</v>
+        <v>5170</v>
       </c>
       <c r="T673">
         <v>0</v>
@@ -56566,7 +56566,7 @@
         <v>2918</v>
       </c>
       <c r="R674" t="s">
-        <v>5168</v>
+        <v>5170</v>
       </c>
       <c r="T674">
         <v>0</v>
@@ -56625,7 +56625,7 @@
         <v>2924</v>
       </c>
       <c r="R675" t="s">
-        <v>5168</v>
+        <v>5170</v>
       </c>
       <c r="T675">
         <v>0</v>
@@ -56802,7 +56802,7 @@
         <v>3</v>
       </c>
       <c r="R678" t="s">
-        <v>5168</v>
+        <v>5170</v>
       </c>
       <c r="T678">
         <v>0</v>
@@ -56920,7 +56920,7 @@
         <v>2943</v>
       </c>
       <c r="R680" t="s">
-        <v>5168</v>
+        <v>5170</v>
       </c>
       <c r="T680">
         <v>0</v>
@@ -57905,7 +57905,7 @@
         <v>5059</v>
       </c>
       <c r="R697" t="s">
-        <v>5167</v>
+        <v>5170</v>
       </c>
       <c r="T697">
         <v>0</v>
@@ -57964,7 +57964,7 @@
         <v>5059</v>
       </c>
       <c r="R698" t="s">
-        <v>5167</v>
+        <v>5170</v>
       </c>
       <c r="T698">
         <v>0</v>
@@ -58613,7 +58613,7 @@
         <v>2187</v>
       </c>
       <c r="R709" t="s">
-        <v>5167</v>
+        <v>5170</v>
       </c>
       <c r="T709">
         <v>0</v>
@@ -58790,7 +58790,7 @@
         <v>3058</v>
       </c>
       <c r="R712" t="s">
-        <v>5167</v>
+        <v>5170</v>
       </c>
       <c r="T712">
         <v>0</v>
@@ -66156,7 +66156,7 @@
         <v>2759</v>
       </c>
       <c r="R837" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T837">
         <v>0</v>
@@ -70994,7 +70994,7 @@
         <v>2187</v>
       </c>
       <c r="R919" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T919">
         <v>0</v>
@@ -71702,7 +71702,7 @@
         <v>2187</v>
       </c>
       <c r="R931" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T931">
         <v>0</v>
@@ -71997,7 +71997,7 @@
         <v>2769</v>
       </c>
       <c r="R936" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T936">
         <v>0</v>
@@ -74532,7 +74532,7 @@
         <v>2187</v>
       </c>
       <c r="R979" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T979">
         <v>0</v>
@@ -75712,7 +75712,7 @@
         <v>2187</v>
       </c>
       <c r="R999" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T999">
         <v>0</v>
@@ -75830,7 +75830,7 @@
         <v>2187</v>
       </c>
       <c r="R1001" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T1001">
         <v>0</v>
@@ -76346,7 +76346,7 @@
         <v>2187</v>
       </c>
       <c r="R1010" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T1010">
         <v>0</v>
@@ -76523,7 +76523,7 @@
         <v>2187</v>
       </c>
       <c r="R1013" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T1013">
         <v>0</v>
@@ -76582,7 +76582,7 @@
         <v>2968</v>
       </c>
       <c r="R1014" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T1014">
         <v>0</v>
@@ -76980,7 +76980,7 @@
         <v>2187</v>
       </c>
       <c r="R1021" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T1021">
         <v>0</v>
@@ -77452,7 +77452,7 @@
         <v>2969</v>
       </c>
       <c r="R1029" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T1029">
         <v>0</v>
@@ -77688,7 +77688,7 @@
         <v>3026</v>
       </c>
       <c r="R1033" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T1033">
         <v>0</v>
@@ -78986,7 +78986,7 @@
         <v>2994</v>
       </c>
       <c r="R1055" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T1055">
         <v>0</v>
@@ -79101,7 +79101,7 @@
         <v>2949</v>
       </c>
       <c r="R1057" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T1057">
         <v>0</v>
@@ -79219,7 +79219,7 @@
         <v>2952</v>
       </c>
       <c r="R1059" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T1059">
         <v>0</v>
@@ -79396,7 +79396,7 @@
         <v>2187</v>
       </c>
       <c r="R1062" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T1062">
         <v>0</v>
@@ -80747,7 +80747,7 @@
         <v>2187</v>
       </c>
       <c r="R1085" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T1085">
         <v>0</v>
@@ -80865,7 +80865,7 @@
         <v>2986</v>
       </c>
       <c r="R1087" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T1087">
         <v>0</v>
@@ -80924,7 +80924,7 @@
         <v>2187</v>
       </c>
       <c r="R1088" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T1088">
         <v>0</v>
@@ -81337,7 +81337,7 @@
         <v>2187</v>
       </c>
       <c r="R1095" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T1095">
         <v>0</v>
@@ -82045,7 +82045,7 @@
         <v>2187</v>
       </c>
       <c r="R1107" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T1107">
         <v>0</v>
@@ -82163,7 +82163,7 @@
         <v>2988</v>
       </c>
       <c r="R1109" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T1109">
         <v>0</v>
@@ -82747,7 +82747,7 @@
         <v>2187</v>
       </c>
       <c r="R1119" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T1119">
         <v>0</v>
@@ -83042,7 +83042,7 @@
         <v>5098</v>
       </c>
       <c r="R1124" t="s">
-        <v>5167</v>
+        <v>5170</v>
       </c>
       <c r="T1124">
         <v>0</v>
@@ -83160,7 +83160,7 @@
         <v>2187</v>
       </c>
       <c r="R1126" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T1126">
         <v>0</v>
@@ -83452,7 +83452,7 @@
         <v>2769</v>
       </c>
       <c r="R1131" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T1131">
         <v>0</v>
@@ -83511,7 +83511,7 @@
         <v>2187</v>
       </c>
       <c r="R1132" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T1132">
         <v>0</v>
@@ -83570,7 +83570,7 @@
         <v>2187</v>
       </c>
       <c r="R1133" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T1133">
         <v>0</v>
@@ -83629,7 +83629,7 @@
         <v>2187</v>
       </c>
       <c r="R1134" t="s">
-        <v>5167</v>
+        <v>5170</v>
       </c>
       <c r="T1134">
         <v>0</v>
@@ -83806,7 +83806,7 @@
         <v>2187</v>
       </c>
       <c r="R1137" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T1137">
         <v>0</v>
@@ -83865,7 +83865,7 @@
         <v>2187</v>
       </c>
       <c r="R1138" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T1138">
         <v>0</v>
@@ -83983,7 +83983,7 @@
         <v>2187</v>
       </c>
       <c r="R1140" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T1140">
         <v>0</v>
@@ -84160,7 +84160,7 @@
         <v>2187</v>
       </c>
       <c r="R1143" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T1143">
         <v>0</v>
@@ -84219,7 +84219,7 @@
         <v>2978</v>
       </c>
       <c r="R1144" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T1144">
         <v>0</v>
@@ -84278,7 +84278,7 @@
         <v>2978</v>
       </c>
       <c r="R1145" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T1145">
         <v>0</v>
@@ -84337,7 +84337,7 @@
         <v>5088</v>
       </c>
       <c r="R1146" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="T1146">
         <v>0</v>
@@ -84396,7 +84396,7 @@
         <v>5009</v>
       </c>
       <c r="R1147" t="s">
-        <v>5167</v>
+        <v>5170</v>
       </c>
       <c r="T1147">
         <v>0</v>
@@ -84455,7 +84455,7 @@
         <v>5075</v>
       </c>
       <c r="R1148" t="s">
-        <v>5167</v>
+        <v>5170</v>
       </c>
       <c r="T1148">
         <v>0</v>
@@ -88597,7 +88597,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S1326"/>
+  <autoFilter ref="A1:S1462"/>
   <sortState ref="A2:T1462">
     <sortCondition ref="T2:T1462"/>
   </sortState>
